--- a/biology/Botanique/Annona_reticulata/Annona_reticulata.xlsx
+++ b/biology/Botanique/Annona_reticulata/Annona_reticulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cachiman, Corossolier réticulé, Anone cœur de bœuf
-Annona reticulata est une espèce de plantes à fleurs du genre Annona, originaire d'Amérique tropicale. Ce petit arbre fruitier est appelé en français cachiman, corossolier réticulé[1] ou encore anone cœur de bœuf[2] et cœur de bœuf tout court[3].
+Annona reticulata est une espèce de plantes à fleurs du genre Annona, originaire d'Amérique tropicale. Ce petit arbre fruitier est appelé en français cachiman, corossolier réticulé ou encore anone cœur de bœuf et cœur de bœuf tout court.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse en basse altitude et en zone chaude et humide. Dans l'Ancien monde, on le rencontre en Inde au sud du plateau du Dekkan.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit arbre à feuilles caduques ou semi-permanentes pouvant atteindre 10 m de hauteur.
 Les feuilles sont alternes, simples, oblongues-lancéolées. de 10 à 15 cm de long et de 5 à 10 cm de large.
